--- a/Intern Documentation/Experience Key Points.xlsx
+++ b/Intern Documentation/Experience Key Points.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasee\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\DnDunderground\Intern Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8854CCCB-9187-4390-A140-D7EC3AF765E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610DE0B5-3D56-49FF-9A5A-1767FD477A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261B9DE8-831B-4315-944D-79B2FE68FBC9}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Week 1</t>
   </si>
@@ -211,6 +210,9 @@
   </si>
   <si>
     <t>Api fetching &amp; custom module</t>
+  </si>
+  <si>
+    <t>Nested Field (Paragraphs)</t>
   </si>
 </sst>
 </file>
@@ -600,7 +602,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,8 +751,8 @@
     </row>
     <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -777,6 +779,11 @@
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">

--- a/Intern Documentation/Experience Key Points.xlsx
+++ b/Intern Documentation/Experience Key Points.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\DnDunderground\Intern Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610DE0B5-3D56-49FF-9A5A-1767FD477A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0845343-127D-48F4-AAA4-BE33481261DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261B9DE8-831B-4315-944D-79B2FE68FBC9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Week 1</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>Nested Field (Paragraphs)</t>
+  </si>
+  <si>
+    <t>Search API</t>
+  </si>
+  <si>
+    <t>Class List &amp; Detail Page</t>
+  </si>
+  <si>
+    <t>Pagination</t>
   </si>
 </sst>
 </file>
@@ -602,7 +611,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,12 +800,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
